--- a/src/test/resources/data/Data.xlsx
+++ b/src/test/resources/data/Data.xlsx
@@ -1,57 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\2023\SQA\Proyectos\DemoExito\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\2023\SQA\Proyectos\haceb-POM\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F11226-A53A-417E-8620-81B3BB626C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3826281A-152E-47CF-A31B-18BD01B616FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{9D66409B-E993-4A16-9C8D-8DE149B6ECC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="productos" sheetId="1" r:id="rId1"/>
+    <sheet name="datos" sheetId="1" r:id="rId1"/>
+    <sheet name="validacion" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Producto</t>
+    <t>Datos Personales</t>
   </si>
   <si>
-    <t>tv</t>
+    <t>Validacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,14 +55,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -81,20 +67,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -107,7 +88,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -141,20 +122,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -182,14 +163,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -217,6 +215,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -228,192 +243,186 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A1EE1E-1EAB-4528-8080-0EFE36B12A9D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE19F0E0-09D8-4850-93AB-191530DD889F}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/data/Data.xlsx
+++ b/src/test/resources/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\2023\SQA\Proyectos\haceb-POM\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3826281A-152E-47CF-A31B-18BD01B616FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF1AD61-F9EC-4114-B93F-4DF04FBD774C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{9D66409B-E993-4A16-9C8D-8DE149B6ECC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9D66409B-E993-4A16-9C8D-8DE149B6ECC7}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
@@ -26,22 +26,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Datos Personales</t>
-  </si>
-  <si>
-    <t>Validacion</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>ABc123456</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apelido</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>cedula</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>año</t>
+  </si>
+  <si>
+    <t>Florez</t>
+  </si>
+  <si>
+    <t>validacion</t>
+  </si>
+  <si>
+    <t>Cocineta Eléctrica 2 Puestos</t>
+  </si>
+  <si>
+    <t>eyg4aczhzr@happy2023year.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,14 +124,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,47 +452,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A1EE1E-1EAB-4528-8080-0EFE36B12A9D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1007447854</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7A32974F-7E7A-424D-BA87-8B0B302D8A3B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE19F0E0-09D8-4850-93AB-191530DD889F}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/Data.xlsx
+++ b/src/test/resources/data/Data.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\2023\SQA\Proyectos\haceb-POM\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF1AD61-F9EC-4114-B93F-4DF04FBD774C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B0FAFE04-790B-45A1-BA8C-D514ECA0DC45}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9D66409B-E993-4A16-9C8D-8DE149B6ECC7}"/>
+    <workbookView activeTab="1" windowHeight="16440" windowWidth="29040" xWindow="-120" xr2:uid="{9D66409B-E993-4A16-9C8D-8DE149B6ECC7}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="datos" sheetId="1" r:id="rId1"/>
-    <sheet name="validacion" sheetId="2" r:id="rId2"/>
+    <sheet name="datos" r:id="rId1" sheetId="1"/>
+    <sheet name="validacion" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Santiago</t>
   </si>
@@ -64,16 +64,41 @@
     <t>validacion</t>
   </si>
   <si>
-    <t>Cocineta Eléctrica 2 Puestos</t>
-  </si>
-  <si>
     <t>eyg4aczhzr@happy2023year.com</t>
+  </si>
+  <si>
+    <t>Estufa Romero Vidrio Haceb 50 cms Gas Natural Negra</t>
+  </si>
+  <si>
+    <t>Meson Ovata Inox 1.20 metros pozuelo derecho Haceb</t>
+  </si>
+  <si>
+    <t>Campana Sándalo negra 60 cm 3 velocidades Haceb</t>
+  </si>
+  <si>
+    <t>Horno eléctrico Tofu 60 cm Inox con vidrio negro 120V Haceb</t>
+  </si>
+  <si>
+    <t>Estufa de empotrar Tandoori Inox 60X51 cm Fogón Dual gas natural Haceb</t>
+  </si>
+  <si>
+    <t>Horno mixto Tandoori 60 cm negro gas natural 120V Haceb</t>
+  </si>
+  <si>
+    <t>Estufa de empotrar Inox 60X43 cm Hierro fundido gas natural Haceb</t>
+  </si>
+  <si>
+    <t>Estufa Romero Ultra Haceb 50 cms Gas Natural Inox</t>
+  </si>
+  <si>
+    <t>Estufa Romero Gabinete Torre Mixta 3x1 Gas Natural Plata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,25 +150,25 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hipervínculo" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -160,10 +185,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -198,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -250,7 +275,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -361,21 +386,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -392,7 +417,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -444,28 +469,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A1EE1E-1EAB-4528-8080-0EFE36B12A9D}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A1EE1E-1EAB-4528-8080-0EFE36B12A9D}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -493,7 +518,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -531,19 +556,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7A32974F-7E7A-424D-BA87-8B0B302D8A3B}"/>
+    <hyperlink r:id="rId1" ref="A2" xr:uid="{7A32974F-7E7A-424D-BA87-8B0B302D8A3B}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE19F0E0-09D8-4850-93AB-191530DD889F}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE19F0E0-09D8-4850-93AB-191530DD889F}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,14 +581,14 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
@@ -578,7 +603,7 @@
       <c r="C5" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>